--- a/forms/app/exit.xlsx
+++ b/forms/app/exit.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ronald\Documents\js\cht-lgh\forms\app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\cht-lgh\forms\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -608,9 +608,6 @@
     <t>enrollment</t>
   </si>
   <si>
-    <t>Enrollment date: ${enrollment_date}</t>
-  </si>
-  <si>
     <t>length_stay</t>
   </si>
   <si>
@@ -678,6 +675,9 @@
   </si>
   <si>
     <t>field-list summary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enrollment date: </t>
   </si>
 </sst>
 </file>
@@ -1265,25 +1265,25 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G39" sqref="G39"/>
+      <selection pane="bottomRight" activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.36328125" style="26" customWidth="1"/>
-    <col min="2" max="2" width="33.36328125" style="26" customWidth="1"/>
-    <col min="3" max="3" width="43.36328125" style="26" customWidth="1"/>
-    <col min="4" max="5" width="14.453125" style="26" customWidth="1"/>
-    <col min="6" max="6" width="53.81640625" style="26" customWidth="1"/>
-    <col min="7" max="8" width="17.453125" style="26" customWidth="1"/>
-    <col min="9" max="9" width="37.6328125" style="26" customWidth="1"/>
-    <col min="10" max="10" width="32.6328125" style="26" customWidth="1"/>
-    <col min="11" max="11" width="73.81640625" style="26" customWidth="1"/>
-    <col min="12" max="12" width="14.453125" style="26" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" style="26" customWidth="1"/>
+    <col min="2" max="2" width="33.42578125" style="26" customWidth="1"/>
+    <col min="3" max="3" width="43.42578125" style="26" customWidth="1"/>
+    <col min="4" max="5" width="14.42578125" style="26" customWidth="1"/>
+    <col min="6" max="6" width="53.85546875" style="26" customWidth="1"/>
+    <col min="7" max="8" width="17.42578125" style="26" customWidth="1"/>
+    <col min="9" max="9" width="37.5703125" style="26" customWidth="1"/>
+    <col min="10" max="10" width="32.5703125" style="26" customWidth="1"/>
+    <col min="11" max="11" width="73.85546875" style="26" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="26" customWidth="1"/>
     <col min="13" max="13" width="30" style="26" customWidth="1"/>
-    <col min="14" max="15" width="14.453125" style="26" customWidth="1"/>
-    <col min="16" max="27" width="29.81640625" style="26" customWidth="1"/>
-    <col min="28" max="16384" width="14.453125" style="26"/>
+    <col min="14" max="15" width="14.42578125" style="26" customWidth="1"/>
+    <col min="16" max="27" width="29.85546875" style="26" customWidth="1"/>
+    <col min="28" max="16384" width="14.42578125" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2090,7 +2090,7 @@
       <c r="Z22" s="33"/>
       <c r="AA22" s="33"/>
     </row>
-    <row r="23" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="42" t="s">
         <v>27</v>
       </c>
@@ -2361,7 +2361,7 @@
       <c r="Z31" s="38"/>
       <c r="AA31" s="38"/>
     </row>
-    <row r="32" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="42" t="s">
         <v>27</v>
       </c>
@@ -2441,7 +2441,7 @@
         <v>191</v>
       </c>
       <c r="C34" s="47" t="s">
-        <v>192</v>
+        <v>215</v>
       </c>
       <c r="D34" s="39"/>
       <c r="E34" s="39"/>
@@ -2473,7 +2473,7 @@
         <v>70</v>
       </c>
       <c r="B35" s="45" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C35" s="47"/>
       <c r="D35" s="39"/>
@@ -2484,7 +2484,7 @@
       <c r="I35" s="39"/>
       <c r="J35" s="39"/>
       <c r="K35" s="39" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L35" s="39"/>
       <c r="M35" s="39"/>
@@ -2508,10 +2508,10 @@
         <v>190</v>
       </c>
       <c r="B36" s="45" t="s">
+        <v>193</v>
+      </c>
+      <c r="C36" s="47" t="s">
         <v>194</v>
-      </c>
-      <c r="C36" s="47" t="s">
-        <v>195</v>
       </c>
       <c r="D36" s="39"/>
       <c r="E36" s="39"/>
@@ -2569,21 +2569,21 @@
       <c r="Z37" s="38"/>
       <c r="AA37" s="38"/>
     </row>
-    <row r="39" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="42" t="s">
         <v>27</v>
       </c>
       <c r="B39" s="42" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C39" s="43" t="s">
         <v>32</v>
       </c>
       <c r="G39" s="42" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="42" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="42" t="s">
         <v>68</v>
       </c>
@@ -2611,13 +2611,13 @@
       <selection pane="bottomLeft" activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.36328125" customWidth="1"/>
-    <col min="2" max="15" width="45.81640625" customWidth="1"/>
+    <col min="1" max="1" width="28.42578125" customWidth="1"/>
+    <col min="2" max="15" width="45.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2640,7 +2640,7 @@
       <c r="N1" s="6"/>
       <c r="O1" s="6"/>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>28</v>
       </c>
@@ -2663,7 +2663,7 @@
       <c r="N2" s="12"/>
       <c r="O2" s="12"/>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>28</v>
       </c>
@@ -2674,7 +2674,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>46</v>
       </c>
@@ -2697,7 +2697,7 @@
       <c r="N4" s="12"/>
       <c r="O4" s="12"/>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>46</v>
       </c>
@@ -2720,62 +2720,62 @@
       <c r="N5" s="12"/>
       <c r="O5" s="12"/>
     </row>
-    <row r="6" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="45" t="s">
         <v>188</v>
       </c>
       <c r="B6" s="45" t="s">
+        <v>195</v>
+      </c>
+      <c r="C6" s="48" t="s">
         <v>196</v>
       </c>
-      <c r="C6" s="48" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="45" t="s">
         <v>188</v>
       </c>
       <c r="B7" s="45" t="s">
+        <v>197</v>
+      </c>
+      <c r="C7" s="48" t="s">
         <v>198</v>
       </c>
-      <c r="C7" s="48" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="45" t="s">
         <v>188</v>
       </c>
       <c r="B8" s="45" t="s">
+        <v>199</v>
+      </c>
+      <c r="C8" s="48" t="s">
         <v>200</v>
       </c>
-      <c r="C8" s="48" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="45" t="s">
         <v>188</v>
       </c>
       <c r="B9" s="45" t="s">
+        <v>201</v>
+      </c>
+      <c r="C9" s="48" t="s">
         <v>202</v>
       </c>
-      <c r="C9" s="48" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="45" t="s">
         <v>188</v>
       </c>
       <c r="B10" s="45" t="s">
+        <v>203</v>
+      </c>
+      <c r="C10" s="48" t="s">
         <v>204</v>
       </c>
-      <c r="C10" s="48" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="45" t="s">
         <v>188</v>
       </c>
@@ -2783,40 +2783,40 @@
         <v>108</v>
       </c>
       <c r="C11" s="48" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="45" t="s">
         <v>188</v>
       </c>
       <c r="B12" s="45" t="s">
+        <v>206</v>
+      </c>
+      <c r="C12" s="48" t="s">
         <v>207</v>
       </c>
-      <c r="C12" s="48" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="45" t="s">
         <v>188</v>
       </c>
       <c r="B13" s="45" t="s">
+        <v>208</v>
+      </c>
+      <c r="C13" s="48" t="s">
         <v>209</v>
       </c>
-      <c r="C13" s="48" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="45" t="s">
         <v>188</v>
       </c>
       <c r="B14" s="45" t="s">
+        <v>210</v>
+      </c>
+      <c r="C14" s="48" t="s">
         <v>211</v>
-      </c>
-      <c r="C14" s="48" t="s">
-        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -2836,15 +2836,15 @@
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="28.453125" customWidth="1"/>
-    <col min="3" max="3" width="24.453125" customWidth="1"/>
-    <col min="4" max="6" width="14.453125" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" customWidth="1"/>
+    <col min="4" max="6" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2886,7 +2886,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>183</v>
       </c>
@@ -2895,7 +2895,7 @@
       </c>
       <c r="C2" s="5">
         <f ca="1">NOW()</f>
-        <v>44197.997130439813</v>
+        <v>44198.498536921295</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7" t="s">
@@ -2942,13 +2942,13 @@
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.36328125" customWidth="1"/>
-    <col min="2" max="23" width="45.81640625" customWidth="1"/>
+    <col min="1" max="1" width="28.42578125" customWidth="1"/>
+    <col min="2" max="23" width="45.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2991,7 +2991,7 @@
       <c r="V1" s="6"/>
       <c r="W1" s="6"/>
     </row>
-    <row r="2" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
         <v>28</v>
       </c>
@@ -3022,7 +3022,7 @@
       <c r="V2" s="12"/>
       <c r="W2" s="12"/>
     </row>
-    <row r="3" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
         <v>28</v>
       </c>
@@ -3053,7 +3053,7 @@
       <c r="V3" s="12"/>
       <c r="W3" s="12"/>
     </row>
-    <row r="4" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="12"/>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
@@ -3078,7 +3078,7 @@
       <c r="V4" s="12"/>
       <c r="W4" s="12"/>
     </row>
-    <row r="5" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
         <v>83</v>
       </c>
@@ -3109,7 +3109,7 @@
       <c r="V5" s="12"/>
       <c r="W5" s="12"/>
     </row>
-    <row r="6" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
         <v>83</v>
       </c>
@@ -3140,7 +3140,7 @@
       <c r="V6" s="12"/>
       <c r="W6" s="12"/>
     </row>
-    <row r="7" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
         <v>83</v>
       </c>
@@ -3171,7 +3171,7 @@
       <c r="V7" s="12"/>
       <c r="W7" s="12"/>
     </row>
-    <row r="8" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
         <v>83</v>
       </c>
@@ -3202,7 +3202,7 @@
       <c r="V8" s="12"/>
       <c r="W8" s="12"/>
     </row>
-    <row r="9" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
         <v>83</v>
       </c>
@@ -3233,7 +3233,7 @@
       <c r="V9" s="12"/>
       <c r="W9" s="12"/>
     </row>
-    <row r="10" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="12"/>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
@@ -3258,7 +3258,7 @@
       <c r="V10" s="12"/>
       <c r="W10" s="12"/>
     </row>
-    <row r="11" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
         <v>94</v>
       </c>
@@ -3289,7 +3289,7 @@
       <c r="V11" s="12"/>
       <c r="W11" s="12"/>
     </row>
-    <row r="12" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
         <v>94</v>
       </c>
@@ -3320,7 +3320,7 @@
       <c r="V12" s="12"/>
       <c r="W12" s="12"/>
     </row>
-    <row r="13" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
         <v>94</v>
       </c>
@@ -3351,7 +3351,7 @@
       <c r="V13" s="12"/>
       <c r="W13" s="12"/>
     </row>
-    <row r="14" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
         <v>94</v>
       </c>
@@ -3382,7 +3382,7 @@
       <c r="V14" s="12"/>
       <c r="W14" s="12"/>
     </row>
-    <row r="15" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
         <v>94</v>
       </c>
@@ -3413,7 +3413,7 @@
       <c r="V15" s="12"/>
       <c r="W15" s="12"/>
     </row>
-    <row r="16" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
         <v>94</v>
       </c>
@@ -3444,7 +3444,7 @@
       <c r="V16" s="12"/>
       <c r="W16" s="12"/>
     </row>
-    <row r="17" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="12"/>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
@@ -3469,7 +3469,7 @@
       <c r="V17" s="12"/>
       <c r="W17" s="12"/>
     </row>
-    <row r="18" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="12" t="s">
         <v>107</v>
       </c>
@@ -3500,7 +3500,7 @@
       <c r="V18" s="12"/>
       <c r="W18" s="12"/>
     </row>
-    <row r="19" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="12" t="s">
         <v>107</v>
       </c>
@@ -3531,7 +3531,7 @@
       <c r="V19" s="12"/>
       <c r="W19" s="12"/>
     </row>
-    <row r="20" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="12" t="s">
         <v>107</v>
       </c>
@@ -3562,7 +3562,7 @@
       <c r="V20" s="12"/>
       <c r="W20" s="12"/>
     </row>
-    <row r="21" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="12" t="s">
         <v>107</v>
       </c>
@@ -3593,7 +3593,7 @@
       <c r="V21" s="12"/>
       <c r="W21" s="12"/>
     </row>
-    <row r="22" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
         <v>107</v>
       </c>
@@ -3624,7 +3624,7 @@
       <c r="V22" s="12"/>
       <c r="W22" s="12"/>
     </row>
-    <row r="23" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="12" t="s">
         <v>107</v>
       </c>
@@ -3655,7 +3655,7 @@
       <c r="V23" s="12"/>
       <c r="W23" s="12"/>
     </row>
-    <row r="24" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="12"/>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
@@ -3680,7 +3680,7 @@
       <c r="V24" s="12"/>
       <c r="W24" s="12"/>
     </row>
-    <row r="25" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="12" t="s">
         <v>111</v>
       </c>
@@ -3711,7 +3711,7 @@
       <c r="V25" s="12"/>
       <c r="W25" s="12"/>
     </row>
-    <row r="26" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="12" t="s">
         <v>111</v>
       </c>
@@ -3742,7 +3742,7 @@
       <c r="V26" s="12"/>
       <c r="W26" s="12"/>
     </row>
-    <row r="27" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="12" t="s">
         <v>111</v>
       </c>
@@ -3773,7 +3773,7 @@
       <c r="V27" s="12"/>
       <c r="W27" s="12"/>
     </row>
-    <row r="28" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
         <v>111</v>
       </c>
@@ -3804,7 +3804,7 @@
       <c r="V28" s="12"/>
       <c r="W28" s="12"/>
     </row>
-    <row r="29" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="12" t="s">
         <v>111</v>
       </c>
@@ -3835,7 +3835,7 @@
       <c r="V29" s="12"/>
       <c r="W29" s="12"/>
     </row>
-    <row r="30" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="12"/>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
@@ -3860,7 +3860,7 @@
       <c r="V30" s="12"/>
       <c r="W30" s="12"/>
     </row>
-    <row r="31" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="12" t="s">
         <v>122</v>
       </c>
@@ -3891,7 +3891,7 @@
       <c r="V31" s="12"/>
       <c r="W31" s="12"/>
     </row>
-    <row r="32" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="12" t="s">
         <v>122</v>
       </c>
@@ -3922,7 +3922,7 @@
       <c r="V32" s="12"/>
       <c r="W32" s="12"/>
     </row>
-    <row r="33" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="12"/>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
@@ -3947,7 +3947,7 @@
       <c r="V33" s="12"/>
       <c r="W33" s="12"/>
     </row>
-    <row r="34" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>125</v>
       </c>
@@ -3959,7 +3959,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="35" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>125</v>
       </c>
@@ -3971,7 +3971,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="36" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>125</v>
       </c>
@@ -3983,7 +3983,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="37" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>125</v>
       </c>
@@ -3995,7 +3995,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="38" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>125</v>
       </c>
@@ -4007,7 +4007,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="39" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>125</v>
       </c>
@@ -4019,7 +4019,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="40" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>125</v>
       </c>
@@ -4031,7 +4031,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="41" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>125</v>
       </c>
@@ -4043,7 +4043,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="42" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>125</v>
       </c>
@@ -4055,7 +4055,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="43" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>125</v>
       </c>
@@ -4066,13 +4066,13 @@
         <v>121</v>
       </c>
     </row>
-    <row r="44" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" t="str">
         <f t="shared" ref="B44:B47" si="1">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C44, "(", ""), ")", "")), " ", "_")</f>
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>135</v>
       </c>
@@ -4084,7 +4084,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="46" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>135</v>
       </c>
@@ -4096,13 +4096,13 @@
         <v>137</v>
       </c>
     </row>
-    <row r="47" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="21" t="s">
         <v>138</v>
       </c>
@@ -4133,7 +4133,7 @@
       <c r="V48" s="6"/>
       <c r="W48" s="6"/>
     </row>
-    <row r="49" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="21" t="s">
         <v>138</v>
       </c>
@@ -4164,8 +4164,8 @@
       <c r="V49" s="6"/>
       <c r="W49" s="6"/>
     </row>
-    <row r="50" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>143</v>
       </c>
@@ -4176,7 +4176,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="52" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>143</v>
       </c>
@@ -4187,7 +4187,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="53" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>143</v>
       </c>
@@ -4198,7 +4198,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="54" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>143</v>
       </c>
@@ -4209,7 +4209,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="55" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>143</v>
       </c>
@@ -4220,7 +4220,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="56" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>143</v>
       </c>
@@ -4231,8 +4231,8 @@
         <v>121</v>
       </c>
     </row>
-    <row r="57" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="21" t="s">
         <v>154</v>
       </c>
@@ -4243,7 +4243,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="59" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="21" t="s">
         <v>154</v>
       </c>
@@ -4254,7 +4254,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="60" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="21" t="s">
         <v>154</v>
       </c>
@@ -4265,7 +4265,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="61" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="21" t="s">
         <v>154</v>
       </c>
@@ -4276,8 +4276,8 @@
         <v>121</v>
       </c>
     </row>
-    <row r="62" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="6" t="s">
         <v>161</v>
       </c>
@@ -4288,7 +4288,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="64" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="6" t="s">
         <v>161</v>
       </c>
@@ -4299,7 +4299,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="6" t="s">
         <v>161</v>
       </c>
@@ -4310,7 +4310,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="6" t="s">
         <v>161</v>
       </c>
@@ -4321,7 +4321,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
         <v>161</v>
       </c>
@@ -4332,8 +4332,8 @@
         <v>171</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>172</v>
       </c>
@@ -4344,7 +4344,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>172</v>
       </c>
@@ -4355,8 +4355,8 @@
         <v>176</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>177</v>
       </c>
@@ -4367,7 +4367,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>177</v>
       </c>
@@ -4378,7 +4378,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>177</v>
       </c>
@@ -4389,932 +4389,932 @@
         <v>121</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/forms/app/exit.xlsx
+++ b/forms/app/exit.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="219">
   <si>
     <t>list_name</t>
   </si>
@@ -678,6 +678,15 @@
   </si>
   <si>
     <t xml:space="preserve">Enrollment date: </t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>enrollment_date</t>
+  </si>
+  <si>
+    <t>Date</t>
   </si>
 </sst>
 </file>
@@ -1259,13 +1268,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C34" sqref="C34"/>
+      <selection pane="bottomRight" activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2470,12 +2479,14 @@
     </row>
     <row r="35" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="45" t="s">
-        <v>70</v>
+        <v>216</v>
       </c>
       <c r="B35" s="45" t="s">
-        <v>192</v>
-      </c>
-      <c r="C35" s="47"/>
+        <v>217</v>
+      </c>
+      <c r="C35" s="47" t="s">
+        <v>218</v>
+      </c>
       <c r="D35" s="39"/>
       <c r="E35" s="39"/>
       <c r="F35" s="38"/>
@@ -2483,9 +2494,7 @@
       <c r="H35" s="39"/>
       <c r="I35" s="39"/>
       <c r="J35" s="39"/>
-      <c r="K35" s="39" t="s">
-        <v>212</v>
-      </c>
+      <c r="K35" s="39"/>
       <c r="L35" s="39"/>
       <c r="M35" s="39"/>
       <c r="N35" s="39"/>
@@ -2505,22 +2514,22 @@
     </row>
     <row r="36" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="45" t="s">
-        <v>190</v>
+        <v>70</v>
       </c>
       <c r="B36" s="45" t="s">
-        <v>193</v>
-      </c>
-      <c r="C36" s="47" t="s">
-        <v>194</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="C36" s="47"/>
       <c r="D36" s="39"/>
       <c r="E36" s="39"/>
-      <c r="F36" s="39"/>
+      <c r="F36" s="38"/>
       <c r="G36" s="39"/>
-      <c r="H36" s="38"/>
+      <c r="H36" s="39"/>
       <c r="I36" s="39"/>
       <c r="J36" s="39"/>
-      <c r="K36" s="38"/>
+      <c r="K36" s="39" t="s">
+        <v>212</v>
+      </c>
       <c r="L36" s="39"/>
       <c r="M36" s="39"/>
       <c r="N36" s="39"/>
@@ -2539,19 +2548,23 @@
       <c r="AA36" s="38"/>
     </row>
     <row r="37" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="44" t="s">
-        <v>68</v>
-      </c>
-      <c r="B37" s="41"/>
-      <c r="C37" s="39"/>
+      <c r="A37" s="45" t="s">
+        <v>190</v>
+      </c>
+      <c r="B37" s="45" t="s">
+        <v>193</v>
+      </c>
+      <c r="C37" s="47" t="s">
+        <v>194</v>
+      </c>
       <c r="D37" s="39"/>
       <c r="E37" s="39"/>
       <c r="F37" s="39"/>
       <c r="G37" s="39"/>
-      <c r="H37" s="39"/>
+      <c r="H37" s="38"/>
       <c r="I37" s="39"/>
       <c r="J37" s="39"/>
-      <c r="K37" s="39"/>
+      <c r="K37" s="38"/>
       <c r="L37" s="39"/>
       <c r="M37" s="39"/>
       <c r="N37" s="39"/>
@@ -2569,28 +2582,59 @@
       <c r="Z37" s="38"/>
       <c r="AA37" s="38"/>
     </row>
-    <row r="39" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="42" t="s">
+    <row r="38" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="B38" s="41"/>
+      <c r="C38" s="39"/>
+      <c r="D38" s="39"/>
+      <c r="E38" s="39"/>
+      <c r="F38" s="39"/>
+      <c r="G38" s="39"/>
+      <c r="H38" s="39"/>
+      <c r="I38" s="39"/>
+      <c r="J38" s="39"/>
+      <c r="K38" s="39"/>
+      <c r="L38" s="39"/>
+      <c r="M38" s="39"/>
+      <c r="N38" s="39"/>
+      <c r="O38" s="39"/>
+      <c r="P38" s="39"/>
+      <c r="Q38" s="39"/>
+      <c r="R38" s="39"/>
+      <c r="S38" s="38"/>
+      <c r="T38" s="38"/>
+      <c r="U38" s="38"/>
+      <c r="V38" s="38"/>
+      <c r="W38" s="38"/>
+      <c r="X38" s="38"/>
+      <c r="Y38" s="38"/>
+      <c r="Z38" s="38"/>
+      <c r="AA38" s="38"/>
+    </row>
+    <row r="40" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="B39" s="42" t="s">
+      <c r="B40" s="42" t="s">
         <v>213</v>
       </c>
-      <c r="C39" s="43" t="s">
+      <c r="C40" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="G39" s="42" t="s">
+      <c r="G40" s="42" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="42" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="42" t="s">
+    <row r="43" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="42" t="s">
         <v>68</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="D2:E37">
+    <dataValidation type="list" allowBlank="1" sqref="D2:E38">
       <formula1>"yes,no"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2895,7 +2939,7 @@
       </c>
       <c r="C2" s="5">
         <f ca="1">NOW()</f>
-        <v>44198.498536921295</v>
+        <v>44198.501331481479</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7" t="s">

--- a/forms/app/exit.xlsx
+++ b/forms/app/exit.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="215">
   <si>
     <t>list_name</t>
   </si>
@@ -584,12 +584,6 @@
     <t>Isolation Exit</t>
   </si>
   <si>
-    <t>measurements</t>
-  </si>
-  <si>
-    <t>Exit measurements</t>
-  </si>
-  <si>
     <t>Exit details</t>
   </si>
   <si>
@@ -669,12 +663,6 @@
   </si>
   <si>
     <t>int(decimal-date-time(today()) - decimal-date-time(date(${enrollment_date})))</t>
-  </si>
-  <si>
-    <t>summary</t>
-  </si>
-  <si>
-    <t>field-list summary</t>
   </si>
   <si>
     <t xml:space="preserve">Enrollment date: </t>
@@ -696,7 +684,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\-mm\-yyyy\ hh\-mm\-ss"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -754,12 +742,6 @@
     <font>
       <sz val="10"/>
       <name val="Century Gothic"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
@@ -963,26 +945,26 @@
     <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1268,13 +1250,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AA43"/>
+  <dimension ref="A1:AA29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C35" sqref="C35"/>
+      <selection pane="bottomRight" activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2100,541 +2082,251 @@
       <c r="AA22" s="33"/>
     </row>
     <row r="23" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="42" t="s">
+      <c r="A23" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="42" t="s">
+      <c r="B23" s="44" t="s">
+        <v>182</v>
+      </c>
+      <c r="C23" s="45" t="s">
         <v>184</v>
       </c>
-      <c r="C23" s="43" t="s">
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="H23" s="37"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="38"/>
+      <c r="L23" s="38"/>
+      <c r="M23" s="38"/>
+      <c r="N23" s="38"/>
+      <c r="O23" s="38"/>
+      <c r="P23" s="38"/>
+      <c r="Q23" s="38"/>
+      <c r="R23" s="38"/>
+      <c r="S23" s="39"/>
+      <c r="T23" s="39"/>
+      <c r="U23" s="39"/>
+      <c r="V23" s="39"/>
+      <c r="W23" s="39"/>
+      <c r="X23" s="39"/>
+      <c r="Y23" s="39"/>
+      <c r="Z23" s="39"/>
+      <c r="AA23" s="39"/>
+    </row>
+    <row r="24" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="46" t="s">
         <v>185</v>
       </c>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="H23" s="38"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="39"/>
-      <c r="K23" s="39"/>
-      <c r="L23" s="39"/>
-      <c r="M23" s="39"/>
-      <c r="N23" s="39"/>
-      <c r="O23" s="39"/>
-      <c r="P23" s="39"/>
-      <c r="Q23" s="39"/>
-      <c r="R23" s="39"/>
-      <c r="S23" s="40"/>
-      <c r="T23" s="40"/>
-      <c r="U23" s="40"/>
-      <c r="V23" s="40"/>
-      <c r="W23" s="40"/>
-      <c r="X23" s="40"/>
-      <c r="Y23" s="40"/>
-      <c r="Z23" s="40"/>
-      <c r="AA23" s="40"/>
-    </row>
-    <row r="24" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="37"/>
-      <c r="B24" s="37"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="39"/>
-      <c r="K24" s="39"/>
-      <c r="L24" s="39"/>
-      <c r="M24" s="39"/>
-      <c r="N24" s="39"/>
-      <c r="O24" s="39"/>
-      <c r="P24" s="39"/>
-      <c r="Q24" s="39"/>
-      <c r="R24" s="39"/>
-      <c r="S24" s="40"/>
-      <c r="T24" s="40"/>
-      <c r="U24" s="40"/>
-      <c r="V24" s="40"/>
-      <c r="W24" s="40"/>
-      <c r="X24" s="40"/>
-      <c r="Y24" s="40"/>
-      <c r="Z24" s="40"/>
-      <c r="AA24" s="40"/>
+      <c r="B24" s="46" t="s">
+        <v>186</v>
+      </c>
+      <c r="C24" s="47" t="s">
+        <v>187</v>
+      </c>
+      <c r="D24" s="38"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="38"/>
+      <c r="K24" s="37"/>
+      <c r="L24" s="38"/>
+      <c r="M24" s="38"/>
+      <c r="N24" s="38"/>
+      <c r="O24" s="38"/>
+      <c r="P24" s="38"/>
+      <c r="Q24" s="38"/>
+      <c r="R24" s="38"/>
+      <c r="S24" s="37"/>
+      <c r="T24" s="37"/>
+      <c r="U24" s="37"/>
+      <c r="V24" s="37"/>
+      <c r="W24" s="37"/>
+      <c r="X24" s="37"/>
+      <c r="Y24" s="37"/>
+      <c r="Z24" s="37"/>
+      <c r="AA24" s="37"/>
     </row>
     <row r="25" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="37"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="39"/>
-      <c r="I25" s="39"/>
-      <c r="J25" s="39"/>
-      <c r="K25" s="39"/>
-      <c r="L25" s="39"/>
-      <c r="M25" s="39"/>
-      <c r="N25" s="39"/>
-      <c r="O25" s="39"/>
-      <c r="P25" s="39"/>
-      <c r="Q25" s="39"/>
-      <c r="R25" s="39"/>
-      <c r="S25" s="40"/>
-      <c r="T25" s="40"/>
-      <c r="U25" s="40"/>
-      <c r="V25" s="40"/>
-      <c r="W25" s="40"/>
-      <c r="X25" s="40"/>
-      <c r="Y25" s="40"/>
-      <c r="Z25" s="40"/>
-      <c r="AA25" s="40"/>
+      <c r="A25" s="46" t="s">
+        <v>188</v>
+      </c>
+      <c r="B25" s="46" t="s">
+        <v>189</v>
+      </c>
+      <c r="C25" s="48" t="s">
+        <v>211</v>
+      </c>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="38"/>
+      <c r="K25" s="38"/>
+      <c r="L25" s="38"/>
+      <c r="M25" s="38"/>
+      <c r="N25" s="38"/>
+      <c r="O25" s="38"/>
+      <c r="P25" s="38"/>
+      <c r="Q25" s="38"/>
+      <c r="R25" s="38"/>
+      <c r="S25" s="37"/>
+      <c r="T25" s="37"/>
+      <c r="U25" s="37"/>
+      <c r="V25" s="37"/>
+      <c r="W25" s="37"/>
+      <c r="X25" s="37"/>
+      <c r="Y25" s="37"/>
+      <c r="Z25" s="37"/>
+      <c r="AA25" s="37"/>
     </row>
     <row r="26" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="37"/>
-      <c r="B26" s="37"/>
-      <c r="C26" s="38"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="39"/>
-      <c r="I26" s="39"/>
-      <c r="J26" s="39"/>
-      <c r="K26" s="39"/>
-      <c r="L26" s="39"/>
-      <c r="M26" s="39"/>
-      <c r="N26" s="39"/>
-      <c r="O26" s="39"/>
-      <c r="P26" s="39"/>
-      <c r="Q26" s="39"/>
-      <c r="R26" s="39"/>
-      <c r="S26" s="38"/>
-      <c r="T26" s="38"/>
-      <c r="U26" s="38"/>
-      <c r="V26" s="38"/>
-      <c r="W26" s="38"/>
-      <c r="X26" s="38"/>
-      <c r="Y26" s="38"/>
-      <c r="Z26" s="38"/>
-      <c r="AA26" s="38"/>
+      <c r="A26" s="46" t="s">
+        <v>212</v>
+      </c>
+      <c r="B26" s="46" t="s">
+        <v>213</v>
+      </c>
+      <c r="C26" s="48" t="s">
+        <v>214</v>
+      </c>
+      <c r="D26" s="38"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="38"/>
+      <c r="M26" s="38"/>
+      <c r="N26" s="38"/>
+      <c r="O26" s="38"/>
+      <c r="P26" s="38"/>
+      <c r="Q26" s="38"/>
+      <c r="R26" s="38"/>
+      <c r="S26" s="37"/>
+      <c r="T26" s="37"/>
+      <c r="U26" s="37"/>
+      <c r="V26" s="37"/>
+      <c r="W26" s="37"/>
+      <c r="X26" s="37"/>
+      <c r="Y26" s="37"/>
+      <c r="Z26" s="37"/>
+      <c r="AA26" s="37"/>
     </row>
     <row r="27" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="37"/>
-      <c r="B27" s="37"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="39"/>
-      <c r="I27" s="39"/>
-      <c r="J27" s="39"/>
-      <c r="K27" s="38"/>
-      <c r="L27" s="39"/>
-      <c r="M27" s="39"/>
-      <c r="N27" s="39"/>
-      <c r="O27" s="39"/>
-      <c r="P27" s="39"/>
-      <c r="Q27" s="39"/>
-      <c r="R27" s="39"/>
-      <c r="S27" s="38"/>
-      <c r="T27" s="38"/>
-      <c r="U27" s="38"/>
-      <c r="V27" s="38"/>
-      <c r="W27" s="38"/>
-      <c r="X27" s="38"/>
-      <c r="Y27" s="38"/>
-      <c r="Z27" s="38"/>
-      <c r="AA27" s="38"/>
+      <c r="A27" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="B27" s="46" t="s">
+        <v>190</v>
+      </c>
+      <c r="C27" s="48"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="38"/>
+      <c r="J27" s="38"/>
+      <c r="K27" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="L27" s="38"/>
+      <c r="M27" s="38"/>
+      <c r="N27" s="38"/>
+      <c r="O27" s="38"/>
+      <c r="P27" s="38"/>
+      <c r="Q27" s="38"/>
+      <c r="R27" s="38"/>
+      <c r="S27" s="37"/>
+      <c r="T27" s="37"/>
+      <c r="U27" s="37"/>
+      <c r="V27" s="37"/>
+      <c r="W27" s="37"/>
+      <c r="X27" s="37"/>
+      <c r="Y27" s="37"/>
+      <c r="Z27" s="37"/>
+      <c r="AA27" s="37"/>
     </row>
     <row r="28" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="37"/>
-      <c r="B28" s="37"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="39"/>
+      <c r="A28" s="46" t="s">
+        <v>188</v>
+      </c>
+      <c r="B28" s="46" t="s">
+        <v>191</v>
+      </c>
+      <c r="C28" s="48" t="s">
+        <v>192</v>
+      </c>
+      <c r="D28" s="38"/>
+      <c r="E28" s="38"/>
       <c r="F28" s="38"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="39"/>
-      <c r="I28" s="39"/>
-      <c r="J28" s="39"/>
-      <c r="K28" s="39"/>
-      <c r="L28" s="39"/>
-      <c r="M28" s="39"/>
-      <c r="N28" s="39"/>
-      <c r="O28" s="39"/>
-      <c r="P28" s="39"/>
-      <c r="Q28" s="39"/>
-      <c r="R28" s="39"/>
-      <c r="S28" s="38"/>
-      <c r="T28" s="38"/>
-      <c r="U28" s="38"/>
-      <c r="V28" s="38"/>
-      <c r="W28" s="38"/>
-      <c r="X28" s="38"/>
-      <c r="Y28" s="38"/>
-      <c r="Z28" s="38"/>
-      <c r="AA28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="38"/>
+      <c r="K28" s="37"/>
+      <c r="L28" s="38"/>
+      <c r="M28" s="38"/>
+      <c r="N28" s="38"/>
+      <c r="O28" s="38"/>
+      <c r="P28" s="38"/>
+      <c r="Q28" s="38"/>
+      <c r="R28" s="38"/>
+      <c r="S28" s="37"/>
+      <c r="T28" s="37"/>
+      <c r="U28" s="37"/>
+      <c r="V28" s="37"/>
+      <c r="W28" s="37"/>
+      <c r="X28" s="37"/>
+      <c r="Y28" s="37"/>
+      <c r="Z28" s="37"/>
+      <c r="AA28" s="37"/>
     </row>
     <row r="29" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="37"/>
-      <c r="B29" s="37"/>
+      <c r="A29" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29" s="40"/>
       <c r="C29" s="38"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="39"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="38"/>
       <c r="F29" s="38"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="39"/>
-      <c r="K29" s="39"/>
-      <c r="L29" s="39"/>
-      <c r="M29" s="39"/>
-      <c r="N29" s="39"/>
-      <c r="O29" s="39"/>
-      <c r="P29" s="39"/>
-      <c r="Q29" s="39"/>
-      <c r="R29" s="39"/>
-      <c r="S29" s="38"/>
-      <c r="T29" s="38"/>
-      <c r="U29" s="38"/>
-      <c r="V29" s="38"/>
-      <c r="W29" s="38"/>
-      <c r="X29" s="38"/>
-      <c r="Y29" s="38"/>
-      <c r="Z29" s="38"/>
-      <c r="AA29" s="38"/>
-    </row>
-    <row r="30" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="44" t="s">
-        <v>68</v>
-      </c>
-      <c r="B30" s="41"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="39"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="39"/>
-      <c r="I30" s="39"/>
-      <c r="J30" s="39"/>
-      <c r="K30" s="39"/>
-      <c r="L30" s="39"/>
-      <c r="M30" s="39"/>
-      <c r="N30" s="39"/>
-      <c r="O30" s="39"/>
-      <c r="P30" s="39"/>
-      <c r="Q30" s="39"/>
-      <c r="R30" s="39"/>
-      <c r="S30" s="38"/>
-      <c r="T30" s="38"/>
-      <c r="U30" s="38"/>
-      <c r="V30" s="38"/>
-      <c r="W30" s="38"/>
-      <c r="X30" s="38"/>
-      <c r="Y30" s="38"/>
-      <c r="Z30" s="38"/>
-      <c r="AA30" s="38"/>
-    </row>
-    <row r="31" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="41"/>
-      <c r="B31" s="41"/>
-      <c r="C31" s="39"/>
-      <c r="D31" s="39"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="39"/>
-      <c r="H31" s="39"/>
-      <c r="I31" s="39"/>
-      <c r="J31" s="39"/>
-      <c r="K31" s="39"/>
-      <c r="L31" s="39"/>
-      <c r="M31" s="39"/>
-      <c r="N31" s="39"/>
-      <c r="O31" s="39"/>
-      <c r="P31" s="39"/>
-      <c r="Q31" s="39"/>
-      <c r="R31" s="39"/>
-      <c r="S31" s="38"/>
-      <c r="T31" s="38"/>
-      <c r="U31" s="38"/>
-      <c r="V31" s="38"/>
-      <c r="W31" s="38"/>
-      <c r="X31" s="38"/>
-      <c r="Y31" s="38"/>
-      <c r="Z31" s="38"/>
-      <c r="AA31" s="38"/>
-    </row>
-    <row r="32" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="42" t="s">
-        <v>27</v>
-      </c>
-      <c r="B32" s="42" t="s">
-        <v>182</v>
-      </c>
-      <c r="C32" s="43" t="s">
-        <v>186</v>
-      </c>
-      <c r="D32" s="39"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="39"/>
-      <c r="G32" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="H32" s="38"/>
-      <c r="I32" s="39"/>
-      <c r="J32" s="39"/>
-      <c r="K32" s="39"/>
-      <c r="L32" s="39"/>
-      <c r="M32" s="39"/>
-      <c r="N32" s="39"/>
-      <c r="O32" s="39"/>
-      <c r="P32" s="39"/>
-      <c r="Q32" s="39"/>
-      <c r="R32" s="39"/>
-      <c r="S32" s="40"/>
-      <c r="T32" s="40"/>
-      <c r="U32" s="40"/>
-      <c r="V32" s="40"/>
-      <c r="W32" s="40"/>
-      <c r="X32" s="40"/>
-      <c r="Y32" s="40"/>
-      <c r="Z32" s="40"/>
-      <c r="AA32" s="40"/>
-    </row>
-    <row r="33" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="45" t="s">
-        <v>187</v>
-      </c>
-      <c r="B33" s="45" t="s">
-        <v>188</v>
-      </c>
-      <c r="C33" s="46" t="s">
-        <v>189</v>
-      </c>
-      <c r="D33" s="39"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="39"/>
-      <c r="H33" s="38"/>
-      <c r="I33" s="39"/>
-      <c r="J33" s="39"/>
-      <c r="K33" s="38"/>
-      <c r="L33" s="39"/>
-      <c r="M33" s="39"/>
-      <c r="N33" s="39"/>
-      <c r="O33" s="39"/>
-      <c r="P33" s="39"/>
-      <c r="Q33" s="39"/>
-      <c r="R33" s="39"/>
-      <c r="S33" s="38"/>
-      <c r="T33" s="38"/>
-      <c r="U33" s="38"/>
-      <c r="V33" s="38"/>
-      <c r="W33" s="38"/>
-      <c r="X33" s="38"/>
-      <c r="Y33" s="38"/>
-      <c r="Z33" s="38"/>
-      <c r="AA33" s="38"/>
-    </row>
-    <row r="34" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="45" t="s">
-        <v>190</v>
-      </c>
-      <c r="B34" s="45" t="s">
-        <v>191</v>
-      </c>
-      <c r="C34" s="47" t="s">
-        <v>215</v>
-      </c>
-      <c r="D34" s="39"/>
-      <c r="E34" s="39"/>
-      <c r="F34" s="38"/>
-      <c r="G34" s="39"/>
-      <c r="H34" s="39"/>
-      <c r="I34" s="39"/>
-      <c r="J34" s="39"/>
-      <c r="K34" s="39"/>
-      <c r="L34" s="39"/>
-      <c r="M34" s="39"/>
-      <c r="N34" s="39"/>
-      <c r="O34" s="39"/>
-      <c r="P34" s="39"/>
-      <c r="Q34" s="39"/>
-      <c r="R34" s="39"/>
-      <c r="S34" s="38"/>
-      <c r="T34" s="38"/>
-      <c r="U34" s="38"/>
-      <c r="V34" s="38"/>
-      <c r="W34" s="38"/>
-      <c r="X34" s="38"/>
-      <c r="Y34" s="38"/>
-      <c r="Z34" s="38"/>
-      <c r="AA34" s="38"/>
-    </row>
-    <row r="35" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="45" t="s">
-        <v>216</v>
-      </c>
-      <c r="B35" s="45" t="s">
-        <v>217</v>
-      </c>
-      <c r="C35" s="47" t="s">
-        <v>218</v>
-      </c>
-      <c r="D35" s="39"/>
-      <c r="E35" s="39"/>
-      <c r="F35" s="38"/>
-      <c r="G35" s="39"/>
-      <c r="H35" s="39"/>
-      <c r="I35" s="39"/>
-      <c r="J35" s="39"/>
-      <c r="K35" s="39"/>
-      <c r="L35" s="39"/>
-      <c r="M35" s="39"/>
-      <c r="N35" s="39"/>
-      <c r="O35" s="39"/>
-      <c r="P35" s="39"/>
-      <c r="Q35" s="39"/>
-      <c r="R35" s="39"/>
-      <c r="S35" s="38"/>
-      <c r="T35" s="38"/>
-      <c r="U35" s="38"/>
-      <c r="V35" s="38"/>
-      <c r="W35" s="38"/>
-      <c r="X35" s="38"/>
-      <c r="Y35" s="38"/>
-      <c r="Z35" s="38"/>
-      <c r="AA35" s="38"/>
-    </row>
-    <row r="36" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="45" t="s">
-        <v>70</v>
-      </c>
-      <c r="B36" s="45" t="s">
-        <v>192</v>
-      </c>
-      <c r="C36" s="47"/>
-      <c r="D36" s="39"/>
-      <c r="E36" s="39"/>
-      <c r="F36" s="38"/>
-      <c r="G36" s="39"/>
-      <c r="H36" s="39"/>
-      <c r="I36" s="39"/>
-      <c r="J36" s="39"/>
-      <c r="K36" s="39" t="s">
-        <v>212</v>
-      </c>
-      <c r="L36" s="39"/>
-      <c r="M36" s="39"/>
-      <c r="N36" s="39"/>
-      <c r="O36" s="39"/>
-      <c r="P36" s="39"/>
-      <c r="Q36" s="39"/>
-      <c r="R36" s="39"/>
-      <c r="S36" s="38"/>
-      <c r="T36" s="38"/>
-      <c r="U36" s="38"/>
-      <c r="V36" s="38"/>
-      <c r="W36" s="38"/>
-      <c r="X36" s="38"/>
-      <c r="Y36" s="38"/>
-      <c r="Z36" s="38"/>
-      <c r="AA36" s="38"/>
-    </row>
-    <row r="37" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="45" t="s">
-        <v>190</v>
-      </c>
-      <c r="B37" s="45" t="s">
-        <v>193</v>
-      </c>
-      <c r="C37" s="47" t="s">
-        <v>194</v>
-      </c>
-      <c r="D37" s="39"/>
-      <c r="E37" s="39"/>
-      <c r="F37" s="39"/>
-      <c r="G37" s="39"/>
-      <c r="H37" s="38"/>
-      <c r="I37" s="39"/>
-      <c r="J37" s="39"/>
-      <c r="K37" s="38"/>
-      <c r="L37" s="39"/>
-      <c r="M37" s="39"/>
-      <c r="N37" s="39"/>
-      <c r="O37" s="39"/>
-      <c r="P37" s="39"/>
-      <c r="Q37" s="39"/>
-      <c r="R37" s="39"/>
-      <c r="S37" s="38"/>
-      <c r="T37" s="38"/>
-      <c r="U37" s="38"/>
-      <c r="V37" s="38"/>
-      <c r="W37" s="38"/>
-      <c r="X37" s="38"/>
-      <c r="Y37" s="38"/>
-      <c r="Z37" s="38"/>
-      <c r="AA37" s="38"/>
-    </row>
-    <row r="38" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="44" t="s">
-        <v>68</v>
-      </c>
-      <c r="B38" s="41"/>
-      <c r="C38" s="39"/>
-      <c r="D38" s="39"/>
-      <c r="E38" s="39"/>
-      <c r="F38" s="39"/>
-      <c r="G38" s="39"/>
-      <c r="H38" s="39"/>
-      <c r="I38" s="39"/>
-      <c r="J38" s="39"/>
-      <c r="K38" s="39"/>
-      <c r="L38" s="39"/>
-      <c r="M38" s="39"/>
-      <c r="N38" s="39"/>
-      <c r="O38" s="39"/>
-      <c r="P38" s="39"/>
-      <c r="Q38" s="39"/>
-      <c r="R38" s="39"/>
-      <c r="S38" s="38"/>
-      <c r="T38" s="38"/>
-      <c r="U38" s="38"/>
-      <c r="V38" s="38"/>
-      <c r="W38" s="38"/>
-      <c r="X38" s="38"/>
-      <c r="Y38" s="38"/>
-      <c r="Z38" s="38"/>
-      <c r="AA38" s="38"/>
-    </row>
-    <row r="40" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="42" t="s">
-        <v>27</v>
-      </c>
-      <c r="B40" s="42" t="s">
-        <v>213</v>
-      </c>
-      <c r="C40" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="G40" s="42" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="43" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="42" t="s">
-        <v>68</v>
-      </c>
+      <c r="G29" s="38"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="38"/>
+      <c r="K29" s="38"/>
+      <c r="L29" s="38"/>
+      <c r="M29" s="38"/>
+      <c r="N29" s="38"/>
+      <c r="O29" s="38"/>
+      <c r="P29" s="38"/>
+      <c r="Q29" s="38"/>
+      <c r="R29" s="38"/>
+      <c r="S29" s="37"/>
+      <c r="T29" s="37"/>
+      <c r="U29" s="37"/>
+      <c r="V29" s="37"/>
+      <c r="W29" s="37"/>
+      <c r="X29" s="37"/>
+      <c r="Y29" s="37"/>
+      <c r="Z29" s="37"/>
+      <c r="AA29" s="37"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="D2:E38">
+    <dataValidation type="list" allowBlank="1" sqref="D2:E29">
       <formula1>"yes,no"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2765,102 +2457,102 @@
       <c r="O5" s="12"/>
     </row>
     <row r="6" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="45" t="s">
-        <v>188</v>
-      </c>
-      <c r="B6" s="45" t="s">
+      <c r="A6" s="42" t="s">
+        <v>186</v>
+      </c>
+      <c r="B6" s="42" t="s">
+        <v>193</v>
+      </c>
+      <c r="C6" s="43" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="42" t="s">
+        <v>186</v>
+      </c>
+      <c r="B7" s="42" t="s">
         <v>195</v>
       </c>
-      <c r="C6" s="48" t="s">
+      <c r="C7" s="43" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="45" t="s">
-        <v>188</v>
-      </c>
-      <c r="B7" s="45" t="s">
+    <row r="8" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="42" t="s">
+        <v>186</v>
+      </c>
+      <c r="B8" s="42" t="s">
         <v>197</v>
       </c>
-      <c r="C7" s="48" t="s">
+      <c r="C8" s="43" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="45" t="s">
-        <v>188</v>
-      </c>
-      <c r="B8" s="45" t="s">
+    <row r="9" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="42" t="s">
+        <v>186</v>
+      </c>
+      <c r="B9" s="42" t="s">
         <v>199</v>
       </c>
-      <c r="C8" s="48" t="s">
+      <c r="C9" s="43" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="45" t="s">
-        <v>188</v>
-      </c>
-      <c r="B9" s="45" t="s">
+    <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="42" t="s">
+        <v>186</v>
+      </c>
+      <c r="B10" s="42" t="s">
         <v>201</v>
       </c>
-      <c r="C9" s="48" t="s">
+      <c r="C10" s="43" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="45" t="s">
-        <v>188</v>
-      </c>
-      <c r="B10" s="45" t="s">
+    <row r="11" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="42" t="s">
+        <v>186</v>
+      </c>
+      <c r="B11" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="C11" s="43" t="s">
         <v>203</v>
       </c>
-      <c r="C10" s="48" t="s">
+    </row>
+    <row r="12" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="42" t="s">
+        <v>186</v>
+      </c>
+      <c r="B12" s="42" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="45" t="s">
-        <v>188</v>
-      </c>
-      <c r="B11" s="45" t="s">
-        <v>108</v>
-      </c>
-      <c r="C11" s="48" t="s">
+      <c r="C12" s="43" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="45" t="s">
-        <v>188</v>
-      </c>
-      <c r="B12" s="45" t="s">
+    <row r="13" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="42" t="s">
+        <v>186</v>
+      </c>
+      <c r="B13" s="42" t="s">
         <v>206</v>
       </c>
-      <c r="C12" s="48" t="s">
+      <c r="C13" s="43" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="45" t="s">
-        <v>188</v>
-      </c>
-      <c r="B13" s="45" t="s">
+    <row r="14" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="42" t="s">
+        <v>186</v>
+      </c>
+      <c r="B14" s="42" t="s">
         <v>208</v>
       </c>
-      <c r="C13" s="48" t="s">
+      <c r="C14" s="43" t="s">
         <v>209</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="45" t="s">
-        <v>188</v>
-      </c>
-      <c r="B14" s="45" t="s">
-        <v>210</v>
-      </c>
-      <c r="C14" s="48" t="s">
-        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -2939,7 +2631,7 @@
       </c>
       <c r="C2" s="5">
         <f ca="1">NOW()</f>
-        <v>44198.501331481479</v>
+        <v>44212.668047916668</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7" t="s">
